--- a/hardware/Orders/McMasterJuly13.xlsx
+++ b/hardware/Orders/McMasterJuly13.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="977" firstSheet="0" activeTab="0"/>
@@ -44,17 +44,7 @@
     <t>Ball bearing</t>
   </si>
   <si>
-    <r>
-      <t>6383K213</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
+    <t>6383K213 </t>
   </si>
   <si>
     <t>talk to machinist about putting in ¼ threaded lead screw</t>
@@ -93,6 +83,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -114,11 +105,13 @@
       <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -163,7 +156,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -173,6 +166,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -196,7 +193,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -267,8 +264,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -297,7 +294,7 @@
     <mergeCell ref="B6:C6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" location="6383K213" display="6383K213"/>
+    <hyperlink ref="B4" r:id="rId1" location="6383K213" display="6383K213 "/>
     <hyperlink ref="B5" r:id="rId2" location="89535K87" display="89535K87"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
